--- a/Burdon-Chart_Yacelga_Penafiel_Jumbo.xlsx
+++ b/Burdon-Chart_Yacelga_Penafiel_Jumbo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausJ\Documents\MEGA\PROYECTO II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -431,9 +431,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -550,19 +550,19 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1106,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2514,7 @@
       <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="26"/>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -2604,7 +2604,7 @@
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="26"/>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -2704,7 +2704,7 @@
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="26"/>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="25"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -2804,7 +2804,7 @@
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="26"/>
@@ -2822,7 +2822,7 @@
       <c r="B27" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="26"/>
@@ -2840,7 +2840,7 @@
       <c r="B28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="26"/>
@@ -2974,12 +2974,12 @@
       <c r="B39" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="24" t="s">
         <v>51</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="B40" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="26"/>
@@ -3095,9 +3095,9 @@
       <c r="C49" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="24" t="s">
         <v>90</v>
       </c>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="50" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="22"/>
-      <c r="C50" s="25"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -3149,7 +3149,7 @@
     <row r="81" spans="2:9" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="8"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -3159,6 +3159,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C26:F26"/>
@@ -3170,16 +3180,6 @@
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3190,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
         <v>0</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="I14" s="14">
         <f>SUM(D14:H14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,28 +3603,28 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <f>SUM(C4:C17)</f>
+        <f>SUM(C4:C16)</f>
         <v>15</v>
       </c>
       <c r="D19">
-        <f>C19-SUM(D4:D17)</f>
-        <v>8</v>
+        <f>C19-SUM(D4:D16)</f>
+        <v>7</v>
       </c>
       <c r="E19">
-        <f>D19-SUM(E4:E17)</f>
-        <v>5</v>
+        <f>D19-SUM(E4:E16)</f>
+        <v>4</v>
       </c>
       <c r="F19">
-        <f>E19-SUM(F4:F17)</f>
-        <v>3</v>
+        <f>E19-SUM(F4:F16)</f>
+        <v>1</v>
       </c>
       <c r="G19">
-        <f>F19-SUM(G4:G17)</f>
-        <v>2</v>
+        <f>F19-SUM(G4:G16)</f>
+        <v>0</v>
       </c>
       <c r="H19">
-        <f>G19-SUM(H4:H17)</f>
-        <v>2</v>
+        <f>G19-SUM(H4:H16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3632,27 +3632,27 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <f>SUM(C4:C17)</f>
+        <f>SUM(C4:C16)</f>
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-(SUM(C4:C17)/6)</f>
+        <f>C20-(SUM(C4:C16)/6)</f>
         <v>12.5</v>
       </c>
       <c r="E20" s="3">
-        <f>D20-(SUM(C4:C17)/6)</f>
+        <f>D20-(SUM(C4:C16)/6)</f>
         <v>10</v>
       </c>
       <c r="F20" s="3">
-        <f>E20-(SUM(C4:C17)/6)</f>
+        <f>E20-(SUM(C4:C16)/6)</f>
         <v>7.5</v>
       </c>
       <c r="G20" s="3">
-        <f>F20-(SUM(C4:C17)/6)</f>
+        <f>F20-(SUM(C4:C16)/6)</f>
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <f>G20-(SUM(C4:C17)/6)</f>
+        <f>G20-(SUM(C4:C16)/6)</f>
         <v>2.5</v>
       </c>
     </row>
